--- a/report/src/接口定义.xlsx
+++ b/report/src/接口定义.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lin81\Desktop\项目\project\report\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linxiao/Desktop/DB Project/Course-Selectiion-Systerm-for-DB-Course/report/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75744D2-885F-4B57-A508-A46DA2D8FFD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257D01DB-2977-4B48-A9AB-4C16F6D3AD31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15840" xr2:uid="{56450B1F-586D-CC48-8B7F-01702C792426}"/>
+    <workbookView xWindow="3080" yWindow="500" windowWidth="23660" windowHeight="15840" xr2:uid="{56450B1F-586D-CC48-8B7F-01702C792426}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +288,10 @@
   </si>
   <si>
     <t>authorize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆时校对身份信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +299,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -731,22 +735,22 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.796875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.796875" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="11.46484375" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.1328125" customWidth="1"/>
-    <col min="6" max="6" width="69.1328125" customWidth="1"/>
-    <col min="8" max="8" width="22.46484375" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="69.1640625" customWidth="1"/>
+    <col min="8" max="8" width="22.5" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
@@ -759,7 +763,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>53</v>
       </c>
@@ -774,7 +778,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,7 +807,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -830,7 +834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9">
       <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -855,7 +859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9">
       <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -880,7 +884,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9">
       <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -905,7 +909,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -916,7 +920,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
         <v>22</v>
@@ -937,7 +941,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9">
       <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
         <v>23</v>
@@ -960,7 +964,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9">
       <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
         <v>24</v>
@@ -983,7 +987,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -994,7 +998,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1005,13 +1009,15 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9">
       <c r="A14" s="6"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G14" s="1" t="s">
         <v>63</v>
       </c>
@@ -1022,7 +1028,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1033,7 +1039,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -1058,7 +1064,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9">
       <c r="A17" s="5"/>
       <c r="B17" s="2" t="s">
         <v>11</v>
@@ -1081,7 +1087,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1092,7 +1098,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9">
       <c r="A19" s="5"/>
       <c r="B19" s="1" t="s">
         <v>12</v>
@@ -1113,7 +1119,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9">
       <c r="A20" s="5"/>
       <c r="B20" s="1" t="s">
         <v>25</v>
@@ -1134,7 +1140,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9">
       <c r="A21" s="6"/>
       <c r="B21" s="1" t="s">
         <v>22</v>

--- a/report/src/接口定义.xlsx
+++ b/report/src/接口定义.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linxiao/Desktop/DB Project/Course-Selectiion-Systerm-for-DB-Course/report/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257D01DB-2977-4B48-A9AB-4C16F6D3AD31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A94E50-7B8D-3B47-9308-97551156067B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="500" windowWidth="23660" windowHeight="15840" xr2:uid="{56450B1F-586D-CC48-8B7F-01702C792426}"/>
+    <workbookView xWindow="11040" yWindow="1340" windowWidth="30380" windowHeight="19560" xr2:uid="{56450B1F-586D-CC48-8B7F-01702C792426}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -312,6 +312,15 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -396,26 +405,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -732,78 +744,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56E9DCA-ED0B-3E49-8A43-7D8B0CBBD1D7}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" customWidth="1"/>
-    <col min="6" max="6" width="69.1640625" customWidth="1"/>
-    <col min="8" max="8" width="22.5" customWidth="1"/>
-    <col min="9" max="9" width="25" customWidth="1"/>
+    <col min="1" max="1" width="5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="49.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="20.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -811,353 +825,341 @@
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5"/>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5"/>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5"/>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="6">
         <v>1</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5"/>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5"/>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5"/>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="5"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="5"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="6"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>42</v>
+      <c r="H16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5"/>
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="5"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="5"/>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1" t="s">
-        <v>44</v>
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="5"/>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="6"/>
-      <c r="B21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="F20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1" t="s">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1166,8 +1168,8 @@
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="A15:A20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/report/src/接口定义.xlsx
+++ b/report/src/接口定义.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linxiao/Desktop/DB Project/Course-Selectiion-Systerm-for-DB-Course/report/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A94E50-7B8D-3B47-9308-97551156067B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257D01DB-2977-4B48-A9AB-4C16F6D3AD31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="1340" windowWidth="30380" windowHeight="19560" xr2:uid="{56450B1F-586D-CC48-8B7F-01702C792426}"/>
+    <workbookView xWindow="3080" yWindow="500" windowWidth="23660" windowHeight="15840" xr2:uid="{56450B1F-586D-CC48-8B7F-01702C792426}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -312,15 +312,6 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -405,29 +396,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -744,80 +732,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56E9DCA-ED0B-3E49-8A43-7D8B0CBBD1D7}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="49.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="25" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="20.83203125" style="2"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="69.1640625" customWidth="1"/>
+    <col min="8" max="8" width="22.5" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -825,341 +811,353 @@
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5"/>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5"/>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5"/>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="5"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="7"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="6"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I14" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I16" s="2" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="5"/>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="5"/>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="5"/>
+      <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3" t="s">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="7"/>
-      <c r="B20" s="3" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21" s="6"/>
+      <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3" t="s">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1168,8 +1166,8 @@
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="A16:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
